--- a/BANK_MCT_ALL_EL.xlsx
+++ b/BANK_MCT_ALL_EL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\r_projects\cluster_analyze\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\bank_data_time_series_analyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC0FBEE0-4CBB-4920-A9B7-9B418C5C1613}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B6E0FA-9C31-44BE-8692-8E7F50F0F435}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BANK_MCT_ALL_EL" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>地區</t>
-  </si>
-  <si>
-    <t>食品餐飲類博士[筆數]</t>
   </si>
   <si>
     <t>食品餐飲類博士[金額，新台幣]</t>
@@ -492,11 +489,14 @@
   <si>
     <t>首列「博士[筆數]」係指「博士教育程度之持卡人交易筆數」，「博士[金額，新台幣]」係指「博士教育程度之持卡人交易金額」，其餘均亦以此原則類推。</t>
   </si>
+  <si>
+    <t>食品餐飲類博士[筆數]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1441,10 +1441,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CH373"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -1456,264 +1458,264 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>84</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
         <v>86</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
       </c>
       <c r="C2">
         <v>61070</v>
@@ -1970,10 +1972,10 @@
     </row>
     <row r="3" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3">
         <v>52703</v>
@@ -2230,10 +2232,10 @@
     </row>
     <row r="4" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4">
         <v>60012</v>
@@ -2490,10 +2492,10 @@
     </row>
     <row r="5" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <v>57800</v>
@@ -2750,10 +2752,10 @@
     </row>
     <row r="6" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6">
         <v>64188</v>
@@ -3010,10 +3012,10 @@
     </row>
     <row r="7" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7">
         <v>62948</v>
@@ -3270,10 +3272,10 @@
     </row>
     <row r="8" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8">
         <v>68189</v>
@@ -3530,10 +3532,10 @@
     </row>
     <row r="9" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9">
         <v>71762</v>
@@ -3790,10 +3792,10 @@
     </row>
     <row r="10" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10">
         <v>65886</v>
@@ -4050,10 +4052,10 @@
     </row>
     <row r="11" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11">
         <v>66560</v>
@@ -4310,10 +4312,10 @@
     </row>
     <row r="12" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12">
         <v>67559</v>
@@ -4570,10 +4572,10 @@
     </row>
     <row r="13" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13">
         <v>71137</v>
@@ -4830,10 +4832,10 @@
     </row>
     <row r="14" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14">
         <v>73553</v>
@@ -5090,10 +5092,10 @@
     </row>
     <row r="15" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15">
         <v>67681</v>
@@ -5350,10 +5352,10 @@
     </row>
     <row r="16" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16">
         <v>70094</v>
@@ -5610,10 +5612,10 @@
     </row>
     <row r="17" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17">
         <v>70493</v>
@@ -5870,10 +5872,10 @@
     </row>
     <row r="18" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18">
         <v>77885</v>
@@ -6130,10 +6132,10 @@
     </row>
     <row r="19" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19">
         <v>75812</v>
@@ -6390,10 +6392,10 @@
     </row>
     <row r="20" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20">
         <v>79784</v>
@@ -6650,10 +6652,10 @@
     </row>
     <row r="21" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21">
         <v>85339</v>
@@ -6910,10 +6912,10 @@
     </row>
     <row r="22" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22">
         <v>79242</v>
@@ -7170,10 +7172,10 @@
     </row>
     <row r="23" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23">
         <v>80968</v>
@@ -7430,10 +7432,10 @@
     </row>
     <row r="24" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24">
         <v>79369</v>
@@ -7690,10 +7692,10 @@
     </row>
     <row r="25" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25">
         <v>84900</v>
@@ -7950,10 +7952,10 @@
     </row>
     <row r="26" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26">
         <v>82651</v>
@@ -8210,10 +8212,10 @@
     </row>
     <row r="27" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27">
         <v>75910</v>
@@ -8470,10 +8472,10 @@
     </row>
     <row r="28" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28">
         <v>75727</v>
@@ -8730,10 +8732,10 @@
     </row>
     <row r="29" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29">
         <v>77601</v>
@@ -8990,10 +8992,10 @@
     </row>
     <row r="30" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30">
         <v>84067</v>
@@ -9250,10 +9252,10 @@
     </row>
     <row r="31" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31">
         <v>86760</v>
@@ -9510,10 +9512,10 @@
     </row>
     <row r="32" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C32">
         <v>90796</v>
@@ -9770,10 +9772,10 @@
     </row>
     <row r="33" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33">
         <v>79811</v>
@@ -10030,10 +10032,10 @@
     </row>
     <row r="34" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34">
         <v>79312</v>
@@ -10290,10 +10292,10 @@
     </row>
     <row r="35" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35">
         <v>82967</v>
@@ -10550,10 +10552,10 @@
     </row>
     <row r="36" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36">
         <v>86428</v>
@@ -10810,10 +10812,10 @@
     </row>
     <row r="37" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37">
         <v>93914</v>
@@ -11070,10 +11072,10 @@
     </row>
     <row r="38" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38">
         <v>81022</v>
@@ -11330,10 +11332,10 @@
     </row>
     <row r="39" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39">
         <v>72970</v>
@@ -11590,10 +11592,10 @@
     </row>
     <row r="40" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40">
         <v>81305</v>
@@ -11850,10 +11852,10 @@
     </row>
     <row r="41" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C41">
         <v>89226</v>
@@ -12110,10 +12112,10 @@
     </row>
     <row r="42" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42">
         <v>80071</v>
@@ -12370,10 +12372,10 @@
     </row>
     <row r="43" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C43">
         <v>69467</v>
@@ -12630,10 +12632,10 @@
     </row>
     <row r="44" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C44">
         <v>77644</v>
@@ -12890,10 +12892,10 @@
     </row>
     <row r="45" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C45">
         <v>78704</v>
@@ -13150,10 +13152,10 @@
     </row>
     <row r="46" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46">
         <v>73804</v>
@@ -13410,10 +13412,10 @@
     </row>
     <row r="47" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C47">
         <v>78384</v>
@@ -13670,10 +13672,10 @@
     </row>
     <row r="48" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48">
         <v>74486</v>
@@ -13930,10 +13932,10 @@
     </row>
     <row r="49" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49">
         <v>83644</v>
@@ -14190,10 +14192,10 @@
     </row>
     <row r="50" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50">
         <v>75478</v>
@@ -14450,10 +14452,10 @@
     </row>
     <row r="51" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51">
         <v>76057</v>
@@ -14710,10 +14712,10 @@
     </row>
     <row r="52" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C52">
         <v>82937</v>
@@ -14970,10 +14972,10 @@
     </row>
     <row r="53" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C53">
         <v>83473</v>
@@ -15230,10 +15232,10 @@
     </row>
     <row r="54" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C54">
         <v>92645</v>
@@ -15490,10 +15492,10 @@
     </row>
     <row r="55" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C55">
         <v>91575</v>
@@ -15750,10 +15752,10 @@
     </row>
     <row r="56" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C56">
         <v>96949</v>
@@ -16010,10 +16012,10 @@
     </row>
     <row r="57" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C57">
         <v>96823</v>
@@ -16270,10 +16272,10 @@
     </row>
     <row r="58" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C58">
         <v>94986</v>
@@ -16530,10 +16532,10 @@
     </row>
     <row r="59" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C59">
         <v>86219</v>
@@ -16790,10 +16792,10 @@
     </row>
     <row r="60" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60">
         <v>93769</v>
@@ -17050,10 +17052,10 @@
     </row>
     <row r="61" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C61">
         <v>106316</v>
@@ -17310,10 +17312,10 @@
     </row>
     <row r="62" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62">
         <v>102313</v>
@@ -17570,10 +17572,10 @@
     </row>
     <row r="63" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C63">
         <v>10009</v>
@@ -17830,10 +17832,10 @@
     </row>
     <row r="64" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C64">
         <v>8439</v>
@@ -18090,10 +18092,10 @@
     </row>
     <row r="65" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C65">
         <v>9669</v>
@@ -18350,10 +18352,10 @@
     </row>
     <row r="66" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C66">
         <v>9223</v>
@@ -18610,10 +18612,10 @@
     </row>
     <row r="67" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C67">
         <v>10180</v>
@@ -18870,10 +18872,10 @@
     </row>
     <row r="68" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C68">
         <v>10000</v>
@@ -19130,10 +19132,10 @@
     </row>
     <row r="69" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C69">
         <v>10812</v>
@@ -19390,10 +19392,10 @@
     </row>
     <row r="70" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C70">
         <v>11282</v>
@@ -19650,10 +19652,10 @@
     </row>
     <row r="71" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B71" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C71">
         <v>10273</v>
@@ -19910,10 +19912,10 @@
     </row>
     <row r="72" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C72">
         <v>10017</v>
@@ -20170,10 +20172,10 @@
     </row>
     <row r="73" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C73">
         <v>10282</v>
@@ -20430,10 +20432,10 @@
     </row>
     <row r="74" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C74">
         <v>10620</v>
@@ -20690,10 +20692,10 @@
     </row>
     <row r="75" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C75">
         <v>10767</v>
@@ -20950,10 +20952,10 @@
     </row>
     <row r="76" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C76">
         <v>10186</v>
@@ -21210,10 +21212,10 @@
     </row>
     <row r="77" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C77">
         <v>9828</v>
@@ -21470,10 +21472,10 @@
     </row>
     <row r="78" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C78">
         <v>9920</v>
@@ -21730,10 +21732,10 @@
     </row>
     <row r="79" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B79" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C79">
         <v>11555</v>
@@ -21990,10 +21992,10 @@
     </row>
     <row r="80" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C80">
         <v>10957</v>
@@ -22250,10 +22252,10 @@
     </row>
     <row r="81" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C81">
         <v>11401</v>
@@ -22510,10 +22512,10 @@
     </row>
     <row r="82" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C82">
         <v>13124</v>
@@ -22770,10 +22772,10 @@
     </row>
     <row r="83" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C83">
         <v>12017</v>
@@ -23030,10 +23032,10 @@
     </row>
     <row r="84" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C84">
         <v>11711</v>
@@ -23290,10 +23292,10 @@
     </row>
     <row r="85" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C85">
         <v>10814</v>
@@ -23550,10 +23552,10 @@
     </row>
     <row r="86" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C86">
         <v>11748</v>
@@ -23810,10 +23812,10 @@
     </row>
     <row r="87" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B87" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C87">
         <v>19560</v>
@@ -24070,10 +24072,10 @@
     </row>
     <row r="88" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B88" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C88">
         <v>18327</v>
@@ -24330,10 +24332,10 @@
     </row>
     <row r="89" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B89" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C89">
         <v>17069</v>
@@ -24590,10 +24592,10 @@
     </row>
     <row r="90" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B90" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C90">
         <v>17899</v>
@@ -24850,10 +24852,10 @@
     </row>
     <row r="91" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C91">
         <v>18880</v>
@@ -25110,10 +25112,10 @@
     </row>
     <row r="92" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92">
         <v>19007</v>
@@ -25370,10 +25372,10 @@
     </row>
     <row r="93" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C93">
         <v>20801</v>
@@ -25630,10 +25632,10 @@
     </row>
     <row r="94" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C94">
         <v>19190</v>
@@ -25890,10 +25892,10 @@
     </row>
     <row r="95" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C95">
         <v>18970</v>
@@ -26150,10 +26152,10 @@
     </row>
     <row r="96" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C96">
         <v>19463</v>
@@ -26410,10 +26412,10 @@
     </row>
     <row r="97" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B97" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C97">
         <v>15863</v>
@@ -26670,10 +26672,10 @@
     </row>
     <row r="98" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B98" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C98">
         <v>17004</v>
@@ -26930,10 +26932,10 @@
     </row>
     <row r="99" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C99">
         <v>17178</v>
@@ -27190,10 +27192,10 @@
     </row>
     <row r="100" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B100" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C100">
         <v>15152</v>
@@ -27450,10 +27452,10 @@
     </row>
     <row r="101" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C101">
         <v>15399</v>
@@ -27710,10 +27712,10 @@
     </row>
     <row r="102" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B102" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C102">
         <v>15962</v>
@@ -27970,10 +27972,10 @@
     </row>
     <row r="103" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B103" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C103">
         <v>16147</v>
@@ -28230,10 +28232,10 @@
     </row>
     <row r="104" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B104" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C104">
         <v>15521</v>
@@ -28490,10 +28492,10 @@
     </row>
     <row r="105" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B105" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C105">
         <v>17751</v>
@@ -28750,10 +28752,10 @@
     </row>
     <row r="106" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C106">
         <v>17842</v>
@@ -29010,10 +29012,10 @@
     </row>
     <row r="107" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B107" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C107">
         <v>16192</v>
@@ -29270,10 +29272,10 @@
     </row>
     <row r="108" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B108" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C108">
         <v>17197</v>
@@ -29530,10 +29532,10 @@
     </row>
     <row r="109" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B109" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C109">
         <v>15615</v>
@@ -29790,10 +29792,10 @@
     </row>
     <row r="110" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B110" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C110">
         <v>17029</v>
@@ -30050,10 +30052,10 @@
     </row>
     <row r="111" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B111" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C111">
         <v>14354</v>
@@ -30310,10 +30312,10 @@
     </row>
     <row r="112" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B112" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C112">
         <v>17414</v>
@@ -30570,10 +30572,10 @@
     </row>
     <row r="113" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B113" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C113">
         <v>17043</v>
@@ -30830,10 +30832,10 @@
     </row>
     <row r="114" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B114" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C114">
         <v>19868</v>
@@ -31090,10 +31092,10 @@
     </row>
     <row r="115" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B115" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C115">
         <v>22453</v>
@@ -31350,10 +31352,10 @@
     </row>
     <row r="116" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B116" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C116">
         <v>22524</v>
@@ -31610,10 +31612,10 @@
     </row>
     <row r="117" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B117" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C117">
         <v>23980</v>
@@ -31870,10 +31872,10 @@
     </row>
     <row r="118" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B118" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C118">
         <v>23471</v>
@@ -32130,10 +32132,10 @@
     </row>
     <row r="119" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B119" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C119">
         <v>23597</v>
@@ -32390,10 +32392,10 @@
     </row>
     <row r="120" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B120" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C120">
         <v>20177</v>
@@ -32650,10 +32652,10 @@
     </row>
     <row r="121" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B121" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C121">
         <v>21347</v>
@@ -32910,10 +32912,10 @@
     </row>
     <row r="122" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B122" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C122">
         <v>23893</v>
@@ -33170,10 +33172,10 @@
     </row>
     <row r="123" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
+        <v>146</v>
+      </c>
+      <c r="B123" t="s">
         <v>147</v>
-      </c>
-      <c r="B123" t="s">
-        <v>148</v>
       </c>
       <c r="C123">
         <v>22494</v>
@@ -33430,10 +33432,10 @@
     </row>
     <row r="124" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B124" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C124">
         <v>7789</v>
@@ -33690,10 +33692,10 @@
     </row>
     <row r="125" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B125" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C125">
         <v>6409</v>
@@ -33950,10 +33952,10 @@
     </row>
     <row r="126" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B126" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C126">
         <v>6811</v>
@@ -34210,10 +34212,10 @@
     </row>
     <row r="127" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B127" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C127">
         <v>6730</v>
@@ -34470,10 +34472,10 @@
     </row>
     <row r="128" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B128" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C128">
         <v>7359</v>
@@ -34730,10 +34732,10 @@
     </row>
     <row r="129" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B129" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C129">
         <v>7377</v>
@@ -34990,10 +34992,10 @@
     </row>
     <row r="130" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B130" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C130">
         <v>8136</v>
@@ -35250,10 +35252,10 @@
     </row>
     <row r="131" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B131" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C131">
         <v>8374</v>
@@ -35510,10 +35512,10 @@
     </row>
     <row r="132" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B132" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C132">
         <v>7675</v>
@@ -35770,10 +35772,10 @@
     </row>
     <row r="133" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B133" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C133">
         <v>7654</v>
@@ -36030,10 +36032,10 @@
     </row>
     <row r="134" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B134" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C134">
         <v>7702</v>
@@ -36290,10 +36292,10 @@
     </row>
     <row r="135" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B135" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C135">
         <v>8017</v>
@@ -36550,10 +36552,10 @@
     </row>
     <row r="136" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B136" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C136">
         <v>8519</v>
@@ -36810,10 +36812,10 @@
     </row>
     <row r="137" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B137" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C137">
         <v>7984</v>
@@ -37070,10 +37072,10 @@
     </row>
     <row r="138" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B138" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C138">
         <v>7500</v>
@@ -37330,10 +37332,10 @@
     </row>
     <row r="139" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B139" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C139">
         <v>7672</v>
@@ -37590,10 +37592,10 @@
     </row>
     <row r="140" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B140" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C140">
         <v>8668</v>
@@ -37850,10 +37852,10 @@
     </row>
     <row r="141" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B141" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C141">
         <v>8378</v>
@@ -38110,10 +38112,10 @@
     </row>
     <row r="142" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B142" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C142">
         <v>9154</v>
@@ -38370,10 +38372,10 @@
     </row>
     <row r="143" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B143" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C143">
         <v>9960</v>
@@ -38630,10 +38632,10 @@
     </row>
     <row r="144" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B144" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C144">
         <v>9083</v>
@@ -38890,10 +38892,10 @@
     </row>
     <row r="145" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B145" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C145">
         <v>9267</v>
@@ -39150,10 +39152,10 @@
     </row>
     <row r="146" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B146" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C146">
         <v>8791</v>
@@ -39410,10 +39412,10 @@
     </row>
     <row r="147" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B147" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C147">
         <v>9509</v>
@@ -39670,10 +39672,10 @@
     </row>
     <row r="148" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B148" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C148">
         <v>10781</v>
@@ -39930,10 +39932,10 @@
     </row>
     <row r="149" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C149">
         <v>9703</v>
@@ -40190,10 +40192,10 @@
     </row>
     <row r="150" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B150" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C150">
         <v>8959</v>
@@ -40450,10 +40452,10 @@
     </row>
     <row r="151" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B151" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C151">
         <v>9456</v>
@@ -40710,10 +40712,10 @@
     </row>
     <row r="152" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B152" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C152">
         <v>9994</v>
@@ -40970,10 +40972,10 @@
     </row>
     <row r="153" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B153" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C153">
         <v>10494</v>
@@ -41230,10 +41232,10 @@
     </row>
     <row r="154" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B154" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C154">
         <v>11330</v>
@@ -41490,10 +41492,10 @@
     </row>
     <row r="155" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B155" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C155">
         <v>10340</v>
@@ -41750,10 +41752,10 @@
     </row>
     <row r="156" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B156" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C156">
         <v>10454</v>
@@ -42010,10 +42012,10 @@
     </row>
     <row r="157" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B157" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C157">
         <v>10992</v>
@@ -42270,10 +42272,10 @@
     </row>
     <row r="158" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B158" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C158">
         <v>9005</v>
@@ -42530,10 +42532,10 @@
     </row>
     <row r="159" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B159" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C159">
         <v>9888</v>
@@ -42790,10 +42792,10 @@
     </row>
     <row r="160" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B160" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C160">
         <v>10069</v>
@@ -43050,10 +43052,10 @@
     </row>
     <row r="161" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B161" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C161">
         <v>8978</v>
@@ -43310,10 +43312,10 @@
     </row>
     <row r="162" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B162" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C162">
         <v>8909</v>
@@ -43570,10 +43572,10 @@
     </row>
     <row r="163" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B163" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C163">
         <v>9348</v>
@@ -43830,10 +43832,10 @@
     </row>
     <row r="164" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B164" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C164">
         <v>9347</v>
@@ -44090,10 +44092,10 @@
     </row>
     <row r="165" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B165" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C165">
         <v>9138</v>
@@ -44350,10 +44352,10 @@
     </row>
     <row r="166" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B166" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C166">
         <v>10441</v>
@@ -44610,10 +44612,10 @@
     </row>
     <row r="167" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B167" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C167">
         <v>9784</v>
@@ -44870,10 +44872,10 @@
     </row>
     <row r="168" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B168" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C168">
         <v>8972</v>
@@ -45130,10 +45132,10 @@
     </row>
     <row r="169" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B169" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C169">
         <v>9913</v>
@@ -45390,10 +45392,10 @@
     </row>
     <row r="170" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B170" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C170">
         <v>9001</v>
@@ -45650,10 +45652,10 @@
     </row>
     <row r="171" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B171" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C171">
         <v>9715</v>
@@ -45910,10 +45912,10 @@
     </row>
     <row r="172" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B172" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C172">
         <v>8433</v>
@@ -46170,10 +46172,10 @@
     </row>
     <row r="173" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B173" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C173">
         <v>10126</v>
@@ -46430,10 +46432,10 @@
     </row>
     <row r="174" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B174" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C174">
         <v>9375</v>
@@ -46690,10 +46692,10 @@
     </row>
     <row r="175" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B175" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C175">
         <v>10958</v>
@@ -46950,10 +46952,10 @@
     </row>
     <row r="176" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B176" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C176">
         <v>12648</v>
@@ -47210,10 +47212,10 @@
     </row>
     <row r="177" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B177" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C177">
         <v>13131</v>
@@ -47470,10 +47472,10 @@
     </row>
     <row r="178" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B178" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C178">
         <v>14265</v>
@@ -47730,10 +47732,10 @@
     </row>
     <row r="179" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B179" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C179">
         <v>13983</v>
@@ -47990,10 +47992,10 @@
     </row>
     <row r="180" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B180" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C180">
         <v>13277</v>
@@ -48250,10 +48252,10 @@
     </row>
     <row r="181" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B181" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C181">
         <v>11329</v>
@@ -48510,10 +48512,10 @@
     </row>
     <row r="182" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B182" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C182">
         <v>12221</v>
@@ -48770,10 +48772,10 @@
     </row>
     <row r="183" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B183" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C183">
         <v>13756</v>
@@ -49030,10 +49032,10 @@
     </row>
     <row r="184" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B184" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C184">
         <v>12485</v>
@@ -49290,10 +49292,10 @@
     </row>
     <row r="185" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B185" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C185">
         <v>9063</v>
@@ -49550,10 +49552,10 @@
     </row>
     <row r="186" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B186" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C186">
         <v>7490</v>
@@ -49810,10 +49812,10 @@
     </row>
     <row r="187" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B187" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C187">
         <v>8023</v>
@@ -50070,10 +50072,10 @@
     </row>
     <row r="188" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B188" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C188">
         <v>7667</v>
@@ -50330,10 +50332,10 @@
     </row>
     <row r="189" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B189" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C189">
         <v>8294</v>
@@ -50590,10 +50592,10 @@
     </row>
     <row r="190" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B190" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C190">
         <v>8235</v>
@@ -50850,10 +50852,10 @@
     </row>
     <row r="191" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B191" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C191">
         <v>9137</v>
@@ -51110,10 +51112,10 @@
     </row>
     <row r="192" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B192" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C192">
         <v>9591</v>
@@ -51370,10 +51372,10 @@
     </row>
     <row r="193" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B193" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C193">
         <v>8673</v>
@@ -51630,10 +51632,10 @@
     </row>
     <row r="194" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B194" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C194">
         <v>8472</v>
@@ -51890,10 +51892,10 @@
     </row>
     <row r="195" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B195" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C195">
         <v>8450</v>
@@ -52150,10 +52152,10 @@
     </row>
     <row r="196" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B196" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C196">
         <v>8960</v>
@@ -52410,10 +52412,10 @@
     </row>
     <row r="197" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B197" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C197">
         <v>9163</v>
@@ -52670,10 +52672,10 @@
     </row>
     <row r="198" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B198" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C198">
         <v>8991</v>
@@ -52930,10 +52932,10 @@
     </row>
     <row r="199" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B199" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C199">
         <v>7927</v>
@@ -53190,10 +53192,10 @@
     </row>
     <row r="200" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B200" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C200">
         <v>8279</v>
@@ -53450,10 +53452,10 @@
     </row>
     <row r="201" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B201" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C201">
         <v>9519</v>
@@ -53710,10 +53712,10 @@
     </row>
     <row r="202" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B202" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C202">
         <v>9011</v>
@@ -53970,10 +53972,10 @@
     </row>
     <row r="203" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B203" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C203">
         <v>9449</v>
@@ -54230,10 +54232,10 @@
     </row>
     <row r="204" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B204" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C204">
         <v>10166</v>
@@ -54490,10 +54492,10 @@
     </row>
     <row r="205" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B205" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C205">
         <v>9707</v>
@@ -54750,10 +54752,10 @@
     </row>
     <row r="206" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B206" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C206">
         <v>9297</v>
@@ -55010,10 +55012,10 @@
     </row>
     <row r="207" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B207" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C207">
         <v>8767</v>
@@ -55270,10 +55272,10 @@
     </row>
     <row r="208" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B208" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C208">
         <v>9447</v>
@@ -55530,10 +55532,10 @@
     </row>
     <row r="209" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B209" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C209">
         <v>18937</v>
@@ -55790,10 +55792,10 @@
     </row>
     <row r="210" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B210" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C210">
         <v>17687</v>
@@ -56050,10 +56052,10 @@
     </row>
     <row r="211" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B211" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C211">
         <v>15650</v>
@@ -56310,10 +56312,10 @@
     </row>
     <row r="212" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B212" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C212">
         <v>16825</v>
@@ -56570,10 +56572,10 @@
     </row>
     <row r="213" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B213" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C213">
         <v>17052</v>
@@ -56830,10 +56832,10 @@
     </row>
     <row r="214" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B214" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C214">
         <v>17497</v>
@@ -57090,10 +57092,10 @@
     </row>
     <row r="215" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B215" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C215">
         <v>18999</v>
@@ -57350,10 +57352,10 @@
     </row>
     <row r="216" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B216" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C216">
         <v>17628</v>
@@ -57610,10 +57612,10 @@
     </row>
     <row r="217" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B217" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C217">
         <v>17628</v>
@@ -57870,10 +57872,10 @@
     </row>
     <row r="218" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B218" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C218">
         <v>18130</v>
@@ -58130,10 +58132,10 @@
     </row>
     <row r="219" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B219" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C219">
         <v>15525</v>
@@ -58390,10 +58392,10 @@
     </row>
     <row r="220" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B220" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C220">
         <v>17072</v>
@@ -58650,10 +58652,10 @@
     </row>
     <row r="221" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B221" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C221">
         <v>18006</v>
@@ -58910,10 +58912,10 @@
     </row>
     <row r="222" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B222" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C222">
         <v>15257</v>
@@ -59170,10 +59172,10 @@
     </row>
     <row r="223" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B223" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C223">
         <v>15265</v>
@@ -59430,10 +59432,10 @@
     </row>
     <row r="224" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B224" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C224">
         <v>16420</v>
@@ -59690,10 +59692,10 @@
     </row>
     <row r="225" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B225" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C225">
         <v>16711</v>
@@ -59950,10 +59952,10 @@
     </row>
     <row r="226" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B226" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C226">
         <v>15658</v>
@@ -60210,10 +60212,10 @@
     </row>
     <row r="227" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B227" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C227">
         <v>17787</v>
@@ -60470,10 +60472,10 @@
     </row>
     <row r="228" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B228" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C228">
         <v>17964</v>
@@ -60730,10 +60732,10 @@
     </row>
     <row r="229" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B229" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C229">
         <v>16511</v>
@@ -60990,10 +60992,10 @@
     </row>
     <row r="230" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B230" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C230">
         <v>18068</v>
@@ -61250,10 +61252,10 @@
     </row>
     <row r="231" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B231" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C231">
         <v>16278</v>
@@ -61510,10 +61512,10 @@
     </row>
     <row r="232" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B232" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C232">
         <v>18168</v>
@@ -61770,10 +61772,10 @@
     </row>
     <row r="233" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B233" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C233">
         <v>16306</v>
@@ -62030,10 +62032,10 @@
     </row>
     <row r="234" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B234" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C234">
         <v>18661</v>
@@ -62290,10 +62292,10 @@
     </row>
     <row r="235" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B235" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C235">
         <v>17463</v>
@@ -62550,10 +62552,10 @@
     </row>
     <row r="236" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B236" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C236">
         <v>20011</v>
@@ -62810,10 +62812,10 @@
     </row>
     <row r="237" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B237" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C237">
         <v>22086</v>
@@ -63070,10 +63072,10 @@
     </row>
     <row r="238" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B238" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C238">
         <v>22702</v>
@@ -63330,10 +63332,10 @@
     </row>
     <row r="239" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B239" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C239">
         <v>23397</v>
@@ -63590,10 +63592,10 @@
     </row>
     <row r="240" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B240" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C240">
         <v>24050</v>
@@ -63850,10 +63852,10 @@
     </row>
     <row r="241" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B241" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C241">
         <v>23539</v>
@@ -64110,10 +64112,10 @@
     </row>
     <row r="242" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B242" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C242">
         <v>20374</v>
@@ -64370,10 +64372,10 @@
     </row>
     <row r="243" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B243" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C243">
         <v>22067</v>
@@ -64630,10 +64632,10 @@
     </row>
     <row r="244" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B244" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C244">
         <v>24959</v>
@@ -64890,10 +64892,10 @@
     </row>
     <row r="245" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B245" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C245">
         <v>23870</v>
@@ -65150,10 +65152,10 @@
     </row>
     <row r="246" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B246" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C246">
         <v>7120</v>
@@ -65410,10 +65412,10 @@
     </row>
     <row r="247" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B247" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C247">
         <v>5597</v>
@@ -65670,10 +65672,10 @@
     </row>
     <row r="248" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B248" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C248">
         <v>6315</v>
@@ -65930,10 +65932,10 @@
     </row>
     <row r="249" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B249" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C249">
         <v>6184</v>
@@ -66190,10 +66192,10 @@
     </row>
     <row r="250" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B250" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C250">
         <v>6867</v>
@@ -66450,10 +66452,10 @@
     </row>
     <row r="251" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B251" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C251">
         <v>6906</v>
@@ -66710,10 +66712,10 @@
     </row>
     <row r="252" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B252" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C252">
         <v>7438</v>
@@ -66970,10 +66972,10 @@
     </row>
     <row r="253" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B253" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C253">
         <v>7991</v>
@@ -67230,10 +67232,10 @@
     </row>
     <row r="254" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B254" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C254">
         <v>7324</v>
@@ -67490,10 +67492,10 @@
     </row>
     <row r="255" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B255" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C255">
         <v>7075</v>
@@ -67750,10 +67752,10 @@
     </row>
     <row r="256" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B256" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C256">
         <v>7017</v>
@@ -68010,10 +68012,10 @@
     </row>
     <row r="257" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B257" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C257">
         <v>7520</v>
@@ -68270,10 +68272,10 @@
     </row>
     <row r="258" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B258" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C258">
         <v>8658</v>
@@ -68530,10 +68532,10 @@
     </row>
     <row r="259" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B259" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C259">
         <v>8399</v>
@@ -68790,10 +68792,10 @@
     </row>
     <row r="260" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B260" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C260">
         <v>7306</v>
@@ -69050,10 +69052,10 @@
     </row>
     <row r="261" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B261" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C261">
         <v>7963</v>
@@ -69310,10 +69312,10 @@
     </row>
     <row r="262" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B262" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C262">
         <v>8719</v>
@@ -69570,10 +69572,10 @@
     </row>
     <row r="263" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B263" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C263">
         <v>8452</v>
@@ -69830,10 +69832,10 @@
     </row>
     <row r="264" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B264" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C264">
         <v>8963</v>
@@ -70090,10 +70092,10 @@
     </row>
     <row r="265" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B265" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C265">
         <v>9361</v>
@@ -70350,10 +70352,10 @@
     </row>
     <row r="266" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B266" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C266">
         <v>8687</v>
@@ -70610,10 +70612,10 @@
     </row>
     <row r="267" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B267" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C267">
         <v>8785</v>
@@ -70870,10 +70872,10 @@
     </row>
     <row r="268" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B268" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C268">
         <v>8196</v>
@@ -71130,10 +71132,10 @@
     </row>
     <row r="269" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B269" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C269">
         <v>8440</v>
@@ -71390,10 +71392,10 @@
     </row>
     <row r="270" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B270" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C270">
         <v>9311</v>
@@ -71650,10 +71652,10 @@
     </row>
     <row r="271" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B271" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C271">
         <v>8448</v>
@@ -71910,10 +71912,10 @@
     </row>
     <row r="272" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B272" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C272">
         <v>7584</v>
@@ -72170,10 +72172,10 @@
     </row>
     <row r="273" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B273" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C273">
         <v>8169</v>
@@ -72430,10 +72432,10 @@
     </row>
     <row r="274" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B274" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C274">
         <v>8370</v>
@@ -72690,10 +72692,10 @@
     </row>
     <row r="275" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B275" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C275">
         <v>8830</v>
@@ -72950,10 +72952,10 @@
     </row>
     <row r="276" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B276" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C276">
         <v>9378</v>
@@ -73210,10 +73212,10 @@
     </row>
     <row r="277" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B277" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C277">
         <v>8130</v>
@@ -73470,10 +73472,10 @@
     </row>
     <row r="278" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B278" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C278">
         <v>8524</v>
@@ -73730,10 +73732,10 @@
     </row>
     <row r="279" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B279" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C279">
         <v>8796</v>
@@ -73990,10 +73992,10 @@
     </row>
     <row r="280" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B280" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C280">
         <v>7028</v>
@@ -74250,10 +74252,10 @@
     </row>
     <row r="281" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B281" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C281">
         <v>7510</v>
@@ -74510,10 +74512,10 @@
     </row>
     <row r="282" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B282" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C282">
         <v>8159</v>
@@ -74770,10 +74772,10 @@
     </row>
     <row r="283" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B283" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C283">
         <v>6663</v>
@@ -75030,10 +75032,10 @@
     </row>
     <row r="284" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B284" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C284">
         <v>6681</v>
@@ -75290,10 +75292,10 @@
     </row>
     <row r="285" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B285" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C285">
         <v>7162</v>
@@ -75550,10 +75552,10 @@
     </row>
     <row r="286" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B286" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C286">
         <v>7415</v>
@@ -75810,10 +75812,10 @@
     </row>
     <row r="287" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B287" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C287">
         <v>7295</v>
@@ -76070,10 +76072,10 @@
     </row>
     <row r="288" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B288" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C288">
         <v>8317</v>
@@ -76330,10 +76332,10 @@
     </row>
     <row r="289" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B289" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C289">
         <v>8180</v>
@@ -76590,10 +76592,10 @@
     </row>
     <row r="290" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B290" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C290">
         <v>7597</v>
@@ -76850,10 +76852,10 @@
     </row>
     <row r="291" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B291" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C291">
         <v>7976</v>
@@ -77110,10 +77112,10 @@
     </row>
     <row r="292" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B292" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C292">
         <v>7308</v>
@@ -77370,10 +77372,10 @@
     </row>
     <row r="293" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B293" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C293">
         <v>8024</v>
@@ -77630,10 +77632,10 @@
     </row>
     <row r="294" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B294" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C294">
         <v>7192</v>
@@ -77890,10 +77892,10 @@
     </row>
     <row r="295" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B295" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C295">
         <v>8800</v>
@@ -78150,10 +78152,10 @@
     </row>
     <row r="296" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B296" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C296">
         <v>7855</v>
@@ -78410,10 +78412,10 @@
     </row>
     <row r="297" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B297" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C297">
         <v>9505</v>
@@ -78670,10 +78672,10 @@
     </row>
     <row r="298" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B298" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C298">
         <v>10979</v>
@@ -78930,10 +78932,10 @@
     </row>
     <row r="299" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B299" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C299">
         <v>11210</v>
@@ -79190,10 +79192,10 @@
     </row>
     <row r="300" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B300" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C300">
         <v>11665</v>
@@ -79450,10 +79452,10 @@
     </row>
     <row r="301" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B301" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C301">
         <v>11760</v>
@@ -79710,10 +79712,10 @@
     </row>
     <row r="302" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B302" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C302">
         <v>11095</v>
@@ -79970,10 +79972,10 @@
     </row>
     <row r="303" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B303" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C303">
         <v>10315</v>
@@ -80230,10 +80232,10 @@
     </row>
     <row r="304" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B304" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C304">
         <v>10516</v>
@@ -80490,10 +80492,10 @@
     </row>
     <row r="305" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B305" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C305">
         <v>11643</v>
@@ -80750,10 +80752,10 @@
     </row>
     <row r="306" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B306" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C306">
         <v>11055</v>
@@ -81010,10 +81012,10 @@
     </row>
     <row r="307" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B307" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C307">
         <v>13157</v>
@@ -81270,10 +81272,10 @@
     </row>
     <row r="308" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B308" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C308">
         <v>11137</v>
@@ -81530,10 +81532,10 @@
     </row>
     <row r="309" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B309" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C309">
         <v>11759</v>
@@ -81790,10 +81792,10 @@
     </row>
     <row r="310" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B310" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C310">
         <v>11712</v>
@@ -82050,10 +82052,10 @@
     </row>
     <row r="311" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B311" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C311">
         <v>12794</v>
@@ -82310,10 +82312,10 @@
     </row>
     <row r="312" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B312" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C312">
         <v>12802</v>
@@ -82570,10 +82572,10 @@
     </row>
     <row r="313" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B313" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C313">
         <v>14162</v>
@@ -82830,10 +82832,10 @@
     </row>
     <row r="314" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B314" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C314">
         <v>14755</v>
@@ -83090,10 +83092,10 @@
     </row>
     <row r="315" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B315" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C315">
         <v>13136</v>
@@ -83350,10 +83352,10 @@
     </row>
     <row r="316" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B316" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C316">
         <v>13320</v>
@@ -83610,10 +83612,10 @@
     </row>
     <row r="317" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B317" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C317">
         <v>13130</v>
@@ -83870,10 +83872,10 @@
     </row>
     <row r="318" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B318" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C318">
         <v>13911</v>
@@ -84130,10 +84132,10 @@
     </row>
     <row r="319" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B319" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C319">
         <v>14455</v>
@@ -84390,10 +84392,10 @@
     </row>
     <row r="320" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B320" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C320">
         <v>14124</v>
@@ -84650,10 +84652,10 @@
     </row>
     <row r="321" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B321" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C321">
         <v>12342</v>
@@ -84910,10 +84912,10 @@
     </row>
     <row r="322" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B322" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C322">
         <v>12937</v>
@@ -85170,10 +85172,10 @@
     </row>
     <row r="323" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B323" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C323">
         <v>14296</v>
@@ -85430,10 +85432,10 @@
     </row>
     <row r="324" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B324" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C324">
         <v>13933</v>
@@ -85690,10 +85692,10 @@
     </row>
     <row r="325" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B325" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C325">
         <v>14862</v>
@@ -85950,10 +85952,10 @@
     </row>
     <row r="326" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B326" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C326">
         <v>15786</v>
@@ -86210,10 +86212,10 @@
     </row>
     <row r="327" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B327" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C327">
         <v>14522</v>
@@ -86470,10 +86472,10 @@
     </row>
     <row r="328" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B328" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C328">
         <v>14552</v>
@@ -86730,10 +86732,10 @@
     </row>
     <row r="329" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B329" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C329">
         <v>13758</v>
@@ -86990,10 +86992,10 @@
     </row>
     <row r="330" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B330" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C330">
         <v>14871</v>
@@ -87250,10 +87252,10 @@
     </row>
     <row r="331" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B331" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C331">
         <v>15637</v>
@@ -87510,10 +87512,10 @@
     </row>
     <row r="332" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B332" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C332">
         <v>14935</v>
@@ -87770,10 +87772,10 @@
     </row>
     <row r="333" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B333" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C333">
         <v>13055</v>
@@ -88030,10 +88032,10 @@
     </row>
     <row r="334" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B334" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C334">
         <v>14030</v>
@@ -88290,10 +88292,10 @@
     </row>
     <row r="335" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B335" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C335">
         <v>14980</v>
@@ -88550,10 +88552,10 @@
     </row>
     <row r="336" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B336" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C336">
         <v>15432</v>
@@ -88810,10 +88812,10 @@
     </row>
     <row r="337" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B337" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C337">
         <v>16500</v>
@@ -89070,10 +89072,10 @@
     </row>
     <row r="338" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B338" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C338">
         <v>15793</v>
@@ -89330,10 +89332,10 @@
     </row>
     <row r="339" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B339" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C339">
         <v>14903</v>
@@ -89590,10 +89592,10 @@
     </row>
     <row r="340" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B340" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C340">
         <v>15823</v>
@@ -89850,10 +89852,10 @@
     </row>
     <row r="341" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B341" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C341">
         <v>13083</v>
@@ -90110,10 +90112,10 @@
     </row>
     <row r="342" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B342" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C342">
         <v>14252</v>
@@ -90370,10 +90372,10 @@
     </row>
     <row r="343" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B343" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C343">
         <v>15289</v>
@@ -90630,10 +90632,10 @@
     </row>
     <row r="344" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B344" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C344">
         <v>12547</v>
@@ -90890,10 +90892,10 @@
     </row>
     <row r="345" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B345" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C345">
         <v>12484</v>
@@ -91150,10 +91152,10 @@
     </row>
     <row r="346" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B346" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C346">
         <v>13788</v>
@@ -91410,10 +91412,10 @@
     </row>
     <row r="347" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B347" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C347">
         <v>13706</v>
@@ -91670,10 +91672,10 @@
     </row>
     <row r="348" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B348" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C348">
         <v>12976</v>
@@ -91930,10 +91932,10 @@
     </row>
     <row r="349" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B349" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C349">
         <v>14763</v>
@@ -92190,10 +92192,10 @@
     </row>
     <row r="350" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B350" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C350">
         <v>14599</v>
@@ -92450,10 +92452,10 @@
     </row>
     <row r="351" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B351" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C351">
         <v>13429</v>
@@ -92710,10 +92712,10 @@
     </row>
     <row r="352" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B352" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C352">
         <v>14082</v>
@@ -92970,10 +92972,10 @@
     </row>
     <row r="353" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B353" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C353">
         <v>12860</v>
@@ -93230,10 +93232,10 @@
     </row>
     <row r="354" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B354" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C354">
         <v>13998</v>
@@ -93490,10 +93492,10 @@
     </row>
     <row r="355" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B355" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C355">
         <v>12009</v>
@@ -93750,10 +93752,10 @@
     </row>
     <row r="356" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B356" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C356">
         <v>14425</v>
@@ -94010,10 +94012,10 @@
     </row>
     <row r="357" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B357" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C357">
         <v>12396</v>
@@ -94270,10 +94272,10 @@
     </row>
     <row r="358" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B358" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C358">
         <v>15053</v>
@@ -94530,10 +94532,10 @@
     </row>
     <row r="359" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B359" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C359">
         <v>16953</v>
@@ -94790,10 +94792,10 @@
     </row>
     <row r="360" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B360" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C360">
         <v>17491</v>
@@ -95050,10 +95052,10 @@
     </row>
     <row r="361" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B361" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C361">
         <v>18661</v>
@@ -95310,10 +95312,10 @@
     </row>
     <row r="362" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B362" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C362">
         <v>18857</v>
@@ -95570,10 +95572,10 @@
     </row>
     <row r="363" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B363" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C363">
         <v>18155</v>
@@ -95830,10 +95832,10 @@
     </row>
     <row r="364" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B364" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C364">
         <v>15797</v>
@@ -96090,10 +96092,10 @@
     </row>
     <row r="365" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B365" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C365">
         <v>16995</v>
@@ -96350,10 +96352,10 @@
     </row>
     <row r="366" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B366" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C366">
         <v>19318</v>
@@ -96610,10 +96612,10 @@
     </row>
     <row r="367" spans="1:86" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B367" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C367">
         <v>18428</v>
@@ -96870,26 +96872,27 @@
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BANK_MCT_ALL_EL.xlsx
+++ b/BANK_MCT_ALL_EL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\bank_data_time_series_analyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B6E0FA-9C31-44BE-8692-8E7F50F0F435}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C0634F-B67A-4A4A-BB1D-C101006E2CDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/BANK_MCT_ALL_EL.xlsx
+++ b/BANK_MCT_ALL_EL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\bank_data_time_series_analyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C0634F-B67A-4A4A-BB1D-C101006E2CDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875518B7-54C8-4DEA-9FDF-D55FF439D439}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
